--- a/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-40 + x_1 + x_2 + y_1 - 2y_2</t>
-  </si>
-  <si>
-    <t>-29.227749368863755</t>
+    <t>-16.45 + x_1 + x_2 + y_1 - 2y_2</t>
+  </si>
+  <si>
+    <t>-23.55</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.15666675595456303</t>
+    <t>0.86</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,100 +78,94 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>10 - x_1 + 2y_2</t>
-  </si>
-  <si>
-    <t>-9.943049499750106</t>
+    <t>18.85 - x_1 + 2y_2</t>
+  </si>
+  <si>
+    <t>-8.850000000000001</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13800456429576358</t>
-  </si>
-  <si>
-    <t>0.8165022870533364</t>
+    <t>0.32</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>10 - x_2 + 2y_2</t>
-  </si>
-  <si>
-    <t>-9.619347253730185</t>
-  </si>
-  <si>
-    <t>0.5184691683237959</t>
-  </si>
-  <si>
-    <t>0.5744953926085967</t>
-  </si>
-  <si>
-    <t>-10 - y_1</t>
-  </si>
-  <si>
-    <t>-0.4681908975410618</t>
-  </si>
-  <si>
-    <t>0.6594478945100174</t>
-  </si>
-  <si>
-    <t>-0.5525075708073008</t>
-  </si>
-  <si>
-    <t>-0.9854845856620629</t>
-  </si>
-  <si>
-    <t>-20 + y_1</t>
-  </si>
-  <si>
-    <t>-29.531809102458936</t>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>20.0 - x_2 + 2y_2</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>-5.1 - y_1</t>
+  </si>
+  <si>
+    <t>-4.9</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-2.9</t>
+  </si>
+  <si>
+    <t>-8.6</t>
+  </si>
+  <si>
+    <t>5.100000000000001 + y_1</t>
+  </si>
+  <si>
+    <t>-25.1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.8823228668879504</t>
-  </si>
-  <si>
-    <t>0.7798859720312149</t>
-  </si>
-  <si>
-    <t>0.11140796395975039</t>
-  </si>
-  <si>
-    <t>-10 - y_2</t>
-  </si>
-  <si>
-    <t>-0.37083149005744787</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>-11.35 - y_2</t>
+  </si>
+  <si>
+    <t>-1.3499999999999996</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2917832556941835</t>
-  </si>
-  <si>
-    <t>0.5747204879394724</t>
-  </si>
-  <si>
-    <t>0.5871407141482858</t>
-  </si>
-  <si>
-    <t>-20 + y_2</t>
-  </si>
-  <si>
-    <t>-29.629168509942552</t>
-  </si>
-  <si>
-    <t>0.8952090405611031</t>
-  </si>
-  <si>
-    <t>-0.6027798465798262</t>
-  </si>
-  <si>
-    <t>-0.32670924171793947</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-48.65 + y_2</t>
+  </si>
+  <si>
+    <t>-28.65</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
   <si>
     <t>x_1</t>
@@ -186,40 +180,37 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>0.6847124798650022</t>
-  </si>
-  <si>
-    <t>0.3610102338450799</t>
-  </si>
-  <si>
-    <t>-9.531809102458938</t>
-  </si>
-  <si>
-    <t>-9.629168509942552</t>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>-8.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-19.789831807730053</t>
-  </si>
-  <si>
-    <t>-21.936015762530776</t>
+    <t>-27.29</t>
+  </si>
+  <si>
+    <t>-19.39</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.3401644689012264</t>
-  </si>
-  <si>
-    <t>-2.156666755954563</t>
-  </si>
-  <si>
-    <t>1.5109397012069214</t>
-  </si>
-  <si>
-    <t>2.8578292723217515</t>
+    <t>-2.86</t>
+  </si>
+  <si>
+    <t>-0.7599999999999998</t>
+  </si>
+  <si>
+    <t>-3.1800000000000006</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -704,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -744,50 +735,50 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -805,30 +796,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -846,17 +837,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -874,27 +865,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
